--- a/website_pages.xlsx
+++ b/website_pages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cobyp\cobypal-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B18E05-A0B0-4D36-A704-56168D4BBC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EAC281-70AB-4257-A55B-D751ECE2D1DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38295" yWindow="0" windowWidth="38610" windowHeight="20985" xr2:uid="{69D98F22-95EE-44E1-BA06-1997D4069E19}"/>
   </bookViews>
@@ -48,11 +48,6 @@
     <t>C:\Users\cobyp\cobypal-website\3d_models\manny_v01.glb</t>
   </si>
   <si>
-    <t xml:space="preserve">Coby Palivathukal is a Los Angeles-based filmmaker and creative producer. 
-&lt;Embed 3D model: C:\Users\cobyp\cobypal-website\3d_models\coby_face_v01.glb&gt;
-Coby is the founder and Executive Producer at Kippy Studios and also works as a Producer for Meta. In his free time, he enjoys writing about media, philosophy, and other topics that you can read via Coby's Brain. He also likes adventures with friends and family, health and fitness, and learning new things. He has a BA from Stanford in Philosophy with a minor in Film and Media Studies and an MFA in Animation and Digital Arts from USC's School of Cinematic Arts. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kippy Studios
 Coby Palivathukal founded Kippy Studios in 2022 with the goal of telling unique stories using innovative technologies. Check out some of our animated projects below:
 The Fridge 
@@ -71,6 +66,11 @@
   </si>
   <si>
     <t>C:\Users\cobyp\cobypal-website\3d_models\brain_v02.glb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coby Palivathukal is a Los Angeles-based filmmaker and producer. 
+&lt;Embed 3D model: C:\Users\cobyp\cobypal-website\3d_models\coby_face_v01.glb&gt;
+Coby is the founder and Executive Producer at Kippy Studios (keep link to page) and also works as a Creative Producer for Meta. In his free time, he enjoys writing about media, philosophy, and other topics that you can read via Coby's Brain (keep link to page). He also likes adventures with friends and family, health and fitness, and learning new things. He has a BA from Stanford in Philosophy with a minor in Film and Media Studies and an MFA in Animation and Digital Arts from USC's School of Cinematic Arts. </t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,15 +449,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="375" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
